--- a/validation/insurance_fm/comparison.xlsx
+++ b/validation/insurance_fm/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\joh\dev\OasisLMF_branch\validation\insurance_fm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02C0B86-CE3B-412E-9EA3-0E8A10DB260F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1BFF6D-571F-46CB-9BD3-66249F32E1A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B1F7516-8689-4AE8-9E91-B1C5033EAC94}"/>
+    <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{1B1F7516-8689-4AE8-9E91-B1C5033EAC94}"/>
   </bookViews>
   <sheets>
     <sheet name="fmcalc" sheetId="1" r:id="rId1"/>
@@ -161,8 +161,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB5CC2E-6B3E-4355-8D8B-2C2DDDF81DDE}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E62"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,6 +491,7 @@
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -550,7 +553,7 @@
       <c r="D3">
         <v>1170000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1053000.01</v>
       </c>
       <c r="G3" t="s">
@@ -565,10 +568,10 @@
       <c r="J3">
         <v>1170000</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>1053000</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <f>E3-K3</f>
         <v>1.0000000009313226E-2</v>
       </c>
@@ -586,7 +589,7 @@
       <c r="D4">
         <v>1170000</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>1018000.09</v>
       </c>
       <c r="G4" t="s">
@@ -601,10 +604,10 @@
       <c r="J4">
         <v>1170000</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>1018000.03</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <f t="shared" ref="L4:L62" si="0">E4-K4</f>
         <v>5.9999999939464033E-2</v>
       </c>
@@ -622,7 +625,7 @@
       <c r="D5">
         <v>1170000</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>999999.96</v>
       </c>
       <c r="G5" t="s">
@@ -637,10 +640,10 @@
       <c r="J5">
         <v>1170000</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>1000000.03</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>-7.000000006519258E-2</v>
       </c>
@@ -658,7 +661,7 @@
       <c r="D6">
         <v>1170000</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>740506.35</v>
       </c>
       <c r="G6" t="s">
@@ -673,10 +676,10 @@
       <c r="J6">
         <v>1170000</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>740506.32</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
         <v>3.0000000027939677E-2</v>
       </c>
@@ -694,7 +697,7 @@
       <c r="D7">
         <v>2780000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>1759493.8</v>
       </c>
       <c r="G7" t="s">
@@ -709,10 +712,10 @@
       <c r="J7">
         <v>2780000</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>1759493.67</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f t="shared" si="0"/>
         <v>0.13000000012107193</v>
       </c>
@@ -730,7 +733,7 @@
       <c r="D8">
         <v>1170000</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>735294.25999999896</v>
       </c>
       <c r="G8" t="s">
@@ -745,10 +748,10 @@
       <c r="J8">
         <v>1170000</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>735294.09</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <f t="shared" si="0"/>
         <v>0.16999999899417162</v>
       </c>
@@ -766,7 +769,7 @@
       <c r="D9">
         <v>2780000</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>1764706.1</v>
       </c>
       <c r="G9" t="s">
@@ -781,10 +784,10 @@
       <c r="J9">
         <v>2780000</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>1764705.89</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <f t="shared" si="0"/>
         <v>0.21000000019557774</v>
       </c>
@@ -802,7 +805,7 @@
       <c r="D10">
         <v>1170000</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>48717.95</v>
       </c>
       <c r="G10" t="s">
@@ -817,10 +820,10 @@
       <c r="J10">
         <v>1170000</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>48717.95</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -838,7 +841,7 @@
       <c r="D11">
         <v>1170000</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>51282.05</v>
       </c>
       <c r="G11" t="s">
@@ -853,10 +856,10 @@
       <c r="J11">
         <v>1170000</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>51282.06</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <f t="shared" si="0"/>
         <v>-9.9999999947613105E-3</v>
       </c>
@@ -874,7 +877,7 @@
       <c r="D12">
         <v>1170000</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>48717.95</v>
       </c>
       <c r="G12" t="s">
@@ -889,10 +892,10 @@
       <c r="J12">
         <v>1170000</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>48717.95</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -910,7 +913,7 @@
       <c r="D13">
         <v>1170000</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>51282.05</v>
       </c>
       <c r="G13" t="s">
@@ -925,10 +928,10 @@
       <c r="J13">
         <v>1170000</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>51282.06</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <f t="shared" si="0"/>
         <v>-9.9999999947613105E-3</v>
       </c>
@@ -946,16 +949,16 @@
       <c r="D14">
         <v>1170000</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>351000.01</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>351000</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <f t="shared" si="0"/>
         <v>1.0000000009313226E-2</v>
       </c>
@@ -973,16 +976,16 @@
       <c r="D15">
         <v>2780000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>833999.97</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>833999.97</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1000,7 +1003,7 @@
       <c r="D16">
         <v>149388939</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>2656685.0099999998</v>
       </c>
       <c r="G16" t="s">
@@ -1015,10 +1018,10 @@
       <c r="J16">
         <v>149388939</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>2203338.4299999899</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <f t="shared" si="0"/>
         <v>453346.58000000985</v>
       </c>
@@ -1036,7 +1039,7 @@
       <c r="D17">
         <v>235208561</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>4182873.62</v>
       </c>
       <c r="G17" t="s">
@@ -1051,10 +1054,10 @@
       <c r="J17">
         <v>235208561</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>3469092.98</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <f t="shared" si="0"/>
         <v>713780.64000000013</v>
       </c>
@@ -1072,7 +1075,7 @@
       <c r="D18">
         <v>2190783</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>38960.17</v>
       </c>
       <c r="G18" t="s">
@@ -1087,10 +1090,10 @@
       <c r="J18">
         <v>2190783</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>37154.35</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <f t="shared" si="0"/>
         <v>1805.8199999999997</v>
       </c>
@@ -1108,7 +1111,7 @@
       <c r="D19">
         <v>134954925</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>2399995.4900000002</v>
       </c>
       <c r="G19" t="s">
@@ -1123,10 +1126,10 @@
       <c r="J19">
         <v>134954925</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>1990451.24</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <f t="shared" si="0"/>
         <v>409544.25000000023</v>
       </c>
@@ -1144,7 +1147,7 @@
       <c r="D20">
         <v>112132230</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>1994123.55999999</v>
       </c>
       <c r="G20" t="s">
@@ -1159,10 +1162,10 @@
       <c r="J20">
         <v>112132230</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>1653838.91</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <f t="shared" si="0"/>
         <v>340284.64999999013</v>
       </c>
@@ -1180,7 +1183,7 @@
       <c r="D21">
         <v>3005149</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>53442.6</v>
       </c>
       <c r="G21" t="s">
@@ -1195,10 +1198,10 @@
       <c r="J21">
         <v>3005149</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>52164.5</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <f t="shared" si="0"/>
         <v>1278.0999999999985</v>
       </c>
@@ -1216,7 +1219,7 @@
       <c r="D22">
         <v>84556353</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>1503723.15</v>
       </c>
       <c r="G22" t="s">
@@ -1231,10 +1234,10 @@
       <c r="J22">
         <v>84556353</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>1247122.1799999899</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <f t="shared" si="0"/>
         <v>256600.97000000998</v>
       </c>
@@ -1252,7 +1255,7 @@
       <c r="D23">
         <v>52786776</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>938743.07</v>
       </c>
       <c r="G23" t="s">
@@ -1267,10 +1270,10 @@
       <c r="J23">
         <v>52786776</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>778552.48</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <f t="shared" si="0"/>
         <v>160190.58999999997</v>
       </c>
@@ -1288,7 +1291,7 @@
       <c r="D24">
         <v>109586820</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>1948856.97</v>
       </c>
       <c r="G24" t="s">
@@ -1303,10 +1306,10 @@
       <c r="J24">
         <v>109586820</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>1616296.9</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <f t="shared" si="0"/>
         <v>332560.07000000007</v>
       </c>
@@ -1324,7 +1327,7 @@
       <c r="D25">
         <v>571557</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>10164.379999999999</v>
       </c>
       <c r="G25" t="s">
@@ -1339,10 +1342,10 @@
       <c r="J25">
         <v>571557</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>7309.23</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <f t="shared" si="0"/>
         <v>2855.1499999999996</v>
       </c>
@@ -1360,7 +1363,7 @@
       <c r="D26">
         <v>18382707</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>326912.14999999898</v>
       </c>
       <c r="G26" t="s">
@@ -1375,10 +1378,10 @@
       <c r="J26">
         <v>18382707</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>328660.09000000003</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="2">
         <f t="shared" si="0"/>
         <v>-1747.9400000010501</v>
       </c>
@@ -1396,7 +1399,7 @@
       <c r="D27">
         <v>295729</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>5259.15</v>
       </c>
       <c r="G27" t="s">
@@ -1411,10 +1414,10 @@
       <c r="J27">
         <v>295729</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>2225.2399999999998</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="2">
         <f t="shared" si="0"/>
         <v>3033.91</v>
       </c>
@@ -1432,7 +1435,7 @@
       <c r="D28">
         <v>107959705</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>1919920.57</v>
       </c>
       <c r="G28" t="s">
@@ -1447,10 +1450,10 @@
       <c r="J28">
         <v>107959705</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>1920842.8599999901</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="2">
         <f t="shared" si="0"/>
         <v>-922.28999999002554</v>
       </c>
@@ -1468,7 +1471,7 @@
       <c r="D29">
         <v>20916476</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>371971.93</v>
       </c>
       <c r="G29" t="s">
@@ -1483,10 +1486,10 @@
       <c r="J29">
         <v>20916476</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>373960.79</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="2">
         <f t="shared" si="0"/>
         <v>-1988.859999999986</v>
       </c>
@@ -1504,7 +1507,7 @@
       <c r="D30">
         <v>147756</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>2627.65</v>
       </c>
       <c r="G30" t="s">
@@ -1519,10 +1522,10 @@
       <c r="J30">
         <v>147756</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>0</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="2">
         <f t="shared" si="0"/>
         <v>2627.65</v>
       </c>
@@ -1540,7 +1543,7 @@
       <c r="D31">
         <v>19992462</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>355539.51</v>
       </c>
       <c r="G31" t="s">
@@ -1555,10 +1558,10 @@
       <c r="J31">
         <v>19992462</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>357440.55999999901</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="2">
         <f t="shared" si="0"/>
         <v>-1901.0499999989988</v>
       </c>
@@ -1576,7 +1579,7 @@
       <c r="D32">
         <v>32709558</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>581696.30999999901</v>
       </c>
       <c r="G32" t="s">
@@ -1591,10 +1594,10 @@
       <c r="J32">
         <v>32709558</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="1">
         <v>584806.44999999995</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="2">
         <f t="shared" si="0"/>
         <v>-3110.1400000009453</v>
       </c>
@@ -1612,7 +1615,7 @@
       <c r="D33">
         <v>1273965</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>22655.79</v>
       </c>
       <c r="G33" t="s">
@@ -1627,10 +1630,10 @@
       <c r="J33">
         <v>1273965</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>20255.809999999899</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="2">
         <f t="shared" si="0"/>
         <v>2399.9800000001014</v>
       </c>
@@ -1648,16 +1651,16 @@
       <c r="D34">
         <v>11700000</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>250000</v>
       </c>
       <c r="G34" t="s">
         <v>6</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>250000</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1675,16 +1678,16 @@
       <c r="D35">
         <v>1170000</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>1111500.01</v>
       </c>
       <c r="G35" t="s">
         <v>7</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <v>1111500.05</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="2">
         <f t="shared" si="0"/>
         <v>-4.0000000037252903E-2</v>
       </c>
@@ -1702,16 +1705,16 @@
       <c r="D36">
         <v>2780000</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>2640999.88</v>
       </c>
       <c r="G36" t="s">
         <v>7</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>2641000</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="2">
         <f t="shared" si="0"/>
         <v>-0.12000000011175871</v>
       </c>
@@ -1729,16 +1732,16 @@
       <c r="D37">
         <v>1170000</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>351000.01</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>351000</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="2">
         <f t="shared" si="0"/>
         <v>1.0000000009313226E-2</v>
       </c>
@@ -1756,16 +1759,16 @@
       <c r="D38">
         <v>2780000</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>833999.97</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>834000</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="2">
         <f t="shared" si="0"/>
         <v>-3.0000000027939677E-2</v>
       </c>
@@ -1783,16 +1786,16 @@
       <c r="D39">
         <v>1170000</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>1094999.93</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="1">
         <v>1095000.0799999901</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="2">
         <f t="shared" si="0"/>
         <v>-0.14999999012798071</v>
       </c>
@@ -1810,16 +1813,16 @@
       <c r="D40">
         <v>1170000</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>1094999.93</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="1">
         <v>1095000.0799999901</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="2">
         <f t="shared" si="0"/>
         <v>-0.14999999012798071</v>
       </c>
@@ -1837,16 +1840,16 @@
       <c r="D41">
         <v>1170000</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>1119999.8500000001</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="1">
         <v>1119999.98</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="2">
         <f t="shared" si="0"/>
         <v>-0.12999999988824129</v>
       </c>
@@ -1864,16 +1867,16 @@
       <c r="D42">
         <v>1170000</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>1119999.8500000001</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="1">
         <v>1119999.98</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="2">
         <f t="shared" si="0"/>
         <v>-0.12999999988824129</v>
       </c>
@@ -1891,16 +1894,16 @@
       <c r="D43">
         <v>1170000</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>740506.32</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="1">
         <v>740506.44</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="2">
         <f t="shared" si="0"/>
         <v>-0.11999999999534339</v>
       </c>
@@ -1918,16 +1921,16 @@
       <c r="D44">
         <v>2780000</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>1759493.68</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="1">
         <v>1759493.91</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="2">
         <f t="shared" si="0"/>
         <v>-0.22999999998137355</v>
       </c>
@@ -1945,7 +1948,7 @@
       <c r="D45">
         <v>2000000</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>216082.69</v>
       </c>
       <c r="G45" t="s">
@@ -1960,10 +1963,10 @@
       <c r="J45">
         <v>2000000</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="1">
         <v>216082.71</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="2">
         <f t="shared" si="0"/>
         <v>-1.9999999989522621E-2</v>
       </c>
@@ -1981,7 +1984,7 @@
       <c r="D46">
         <v>2000000</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>216082.69</v>
       </c>
       <c r="G46" t="s">
@@ -1996,10 +1999,10 @@
       <c r="J46">
         <v>2000000</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="1">
         <v>216082.71</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="2">
         <f t="shared" si="0"/>
         <v>-1.9999999989522621E-2</v>
       </c>
@@ -2017,7 +2020,7 @@
       <c r="D47">
         <v>2000000</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>207352.09</v>
       </c>
       <c r="G47" t="s">
@@ -2032,10 +2035,10 @@
       <c r="J47">
         <v>2000000</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="1">
         <v>207352.1</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="2">
         <f t="shared" si="0"/>
         <v>-1.0000000009313226E-2</v>
       </c>
@@ -2053,7 +2056,7 @@
       <c r="D48">
         <v>4000000</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>433256.73</v>
       </c>
       <c r="G48" t="s">
@@ -2068,10 +2071,10 @@
       <c r="J48">
         <v>4000000</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="1">
         <v>433256.73</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2089,7 +2092,7 @@
       <c r="D49">
         <v>4000000</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>434348.08</v>
       </c>
       <c r="G49" t="s">
@@ -2104,10 +2107,10 @@
       <c r="J49">
         <v>4000000</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="1">
         <v>434348.08</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2125,7 +2128,7 @@
       <c r="D50">
         <v>4000000</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>392877.66</v>
       </c>
       <c r="G50" t="s">
@@ -2140,10 +2143,10 @@
       <c r="J50">
         <v>4000000</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="1">
         <v>392877.66</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2161,7 +2164,7 @@
       <c r="D51">
         <v>1000000</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>21030.12</v>
       </c>
       <c r="G51" t="s">
@@ -2176,10 +2179,10 @@
       <c r="J51">
         <v>1000000</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="1">
         <v>21030.12</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2197,7 +2200,7 @@
       <c r="D52">
         <v>1000000</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>21030.12</v>
       </c>
       <c r="G52" t="s">
@@ -2212,10 +2215,10 @@
       <c r="J52">
         <v>1000000</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="1">
         <v>21030.12</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2233,7 +2236,7 @@
       <c r="D53">
         <v>1000000</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>20180.419999999998</v>
       </c>
       <c r="G53" t="s">
@@ -2248,10 +2251,10 @@
       <c r="J53">
         <v>1000000</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="1">
         <v>20180.419999999998</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2269,7 +2272,7 @@
       <c r="D54">
         <v>2000000</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>494190.88</v>
       </c>
       <c r="G54" t="s">
@@ -2284,10 +2287,10 @@
       <c r="J54">
         <v>2000000</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="1">
         <v>494190.88</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2305,7 +2308,7 @@
       <c r="D55">
         <v>2000000</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>495435.69</v>
       </c>
       <c r="G55" t="s">
@@ -2320,10 +2323,10 @@
       <c r="J55">
         <v>2000000</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="1">
         <v>495435.75</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="2">
         <f t="shared" si="0"/>
         <v>-5.9999999997671694E-2</v>
       </c>
@@ -2341,7 +2344,7 @@
       <c r="D56">
         <v>2000000</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>448132.81</v>
       </c>
       <c r="G56" t="s">
@@ -2356,10 +2359,10 @@
       <c r="J56">
         <v>2000000</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="1">
         <v>448132.75</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="2">
         <f t="shared" si="0"/>
         <v>5.9999999997671694E-2</v>
       </c>
@@ -2377,13 +2380,13 @@
       <c r="D57">
         <v>2000000</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>278841.65999999997</v>
       </c>
       <c r="G57" t="s">
         <v>15</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="2">
         <f t="shared" si="0"/>
         <v>278841.65999999997</v>
       </c>
@@ -2401,13 +2404,13 @@
       <c r="D58">
         <v>2000000</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>278841.65999999997</v>
       </c>
       <c r="G58" t="s">
         <v>15</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="2">
         <f t="shared" si="0"/>
         <v>278841.65999999997</v>
       </c>
@@ -2425,13 +2428,13 @@
       <c r="D59">
         <v>1000000</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>133115.34</v>
       </c>
       <c r="G59" t="s">
         <v>15</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="2">
         <f t="shared" si="0"/>
         <v>133115.34</v>
       </c>
@@ -2449,13 +2452,13 @@
       <c r="D60">
         <v>2000000</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>278141.06</v>
       </c>
       <c r="G60" t="s">
         <v>15</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="2">
         <f t="shared" si="0"/>
         <v>278141.06</v>
       </c>
@@ -2473,13 +2476,13 @@
       <c r="D61">
         <v>2000000</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>278841.65999999997</v>
       </c>
       <c r="G61" t="s">
         <v>15</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="2">
         <f t="shared" si="0"/>
         <v>278841.65999999997</v>
       </c>
@@ -2497,13 +2500,13 @@
       <c r="D62">
         <v>2000000</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>252218.58</v>
       </c>
       <c r="G62" t="s">
         <v>15</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="2">
         <f t="shared" si="0"/>
         <v>252218.58</v>
       </c>

--- a/validation/insurance_fm/comparison.xlsx
+++ b/validation/insurance_fm/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\joh\dev\OasisLMF_branch\validation\insurance_fm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1BFF6D-571F-46CB-9BD3-66249F32E1A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C027A65F-D0AD-4097-95BC-954BD7174018}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{1B1F7516-8689-4AE8-9E91-B1C5033EAC94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1B1F7516-8689-4AE8-9E91-B1C5033EAC94}"/>
   </bookViews>
   <sheets>
     <sheet name="fmcalc" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="30">
   <si>
     <t>portnumber</t>
   </si>
@@ -481,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB5CC2E-6B3E-4355-8D8B-2C2DDDF81DDE}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +553,7 @@
       <c r="D3">
         <v>1170000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>1053000.01</v>
       </c>
       <c r="G3" t="s">
@@ -589,8 +589,8 @@
       <c r="D4">
         <v>1170000</v>
       </c>
-      <c r="E4" s="1">
-        <v>1018000.09</v>
+      <c r="E4">
+        <v>1018000</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -609,7 +609,7 @@
       </c>
       <c r="L4" s="2">
         <f t="shared" ref="L4:L62" si="0">E4-K4</f>
-        <v>5.9999999939464033E-2</v>
+        <v>-3.0000000027939677E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -625,8 +625,8 @@
       <c r="D5">
         <v>1170000</v>
       </c>
-      <c r="E5" s="1">
-        <v>999999.96</v>
+      <c r="E5">
+        <v>999999.95</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
@@ -645,7 +645,7 @@
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>-7.000000006519258E-2</v>
+        <v>-8.0000000074505806E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -661,8 +661,8 @@
       <c r="D6">
         <v>1170000</v>
       </c>
-      <c r="E6" s="1">
-        <v>740506.35</v>
+      <c r="E6">
+        <v>740506.25</v>
       </c>
       <c r="G6" t="s">
         <v>25</v>
@@ -681,7 +681,7 @@
       </c>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>3.0000000027939677E-2</v>
+        <v>-6.9999999948777258E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -697,8 +697,8 @@
       <c r="D7">
         <v>2780000</v>
       </c>
-      <c r="E7" s="1">
-        <v>1759493.8</v>
+      <c r="E7">
+        <v>1759493.54</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>0.13000000012107193</v>
+        <v>-0.12999999988824129</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -733,8 +733,8 @@
       <c r="D8">
         <v>1170000</v>
       </c>
-      <c r="E8" s="1">
-        <v>735294.25999999896</v>
+      <c r="E8">
+        <v>735294.19</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
@@ -753,7 +753,7 @@
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>0.16999999899417162</v>
+        <v>9.9999999976716936E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -769,8 +769,8 @@
       <c r="D9">
         <v>2780000</v>
       </c>
-      <c r="E9" s="1">
-        <v>1764706.1</v>
+      <c r="E9">
+        <v>1764705.9</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -789,7 +789,7 @@
       </c>
       <c r="L9" s="2">
         <f t="shared" si="0"/>
-        <v>0.21000000019557774</v>
+        <v>1.0000000009313226E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -805,8 +805,8 @@
       <c r="D10">
         <v>1170000</v>
       </c>
-      <c r="E10" s="1">
-        <v>48717.95</v>
+      <c r="E10">
+        <v>48717.96</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -825,7 +825,7 @@
       </c>
       <c r="L10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0000000002037268E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -841,7 +841,7 @@
       <c r="D11">
         <v>1170000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11">
         <v>51282.05</v>
       </c>
       <c r="G11" t="s">
@@ -877,8 +877,8 @@
       <c r="D12">
         <v>1170000</v>
       </c>
-      <c r="E12" s="1">
-        <v>48717.95</v>
+      <c r="E12">
+        <v>48717.96</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -897,7 +897,7 @@
       </c>
       <c r="L12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0000000002037268E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -913,7 +913,7 @@
       <c r="D13">
         <v>1170000</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13">
         <v>51282.05</v>
       </c>
       <c r="G13" t="s">
@@ -949,8 +949,8 @@
       <c r="D14">
         <v>1170000</v>
       </c>
-      <c r="E14" s="1">
-        <v>351000.01</v>
+      <c r="E14">
+        <v>350999.97</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -960,7 +960,7 @@
       </c>
       <c r="L14" s="2">
         <f t="shared" si="0"/>
-        <v>1.0000000009313226E-2</v>
+        <v>-3.0000000027939677E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -976,8 +976,8 @@
       <c r="D15">
         <v>2780000</v>
       </c>
-      <c r="E15" s="1">
-        <v>833999.97</v>
+      <c r="E15">
+        <v>834000.03</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -987,7 +987,7 @@
       </c>
       <c r="L15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.0000000055879354E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1003,8 +1003,8 @@
       <c r="D16">
         <v>149388939</v>
       </c>
-      <c r="E16" s="1">
-        <v>2656685.0099999998</v>
+      <c r="E16">
+        <v>2203338.4900000002</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="L16" s="2">
         <f t="shared" si="0"/>
-        <v>453346.58000000985</v>
+        <v>6.0000010300427675E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1039,8 +1039,8 @@
       <c r="D17">
         <v>235208561</v>
       </c>
-      <c r="E17" s="1">
-        <v>4182873.62</v>
+      <c r="E17">
+        <v>3469092.3799999901</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="L17" s="2">
         <f t="shared" si="0"/>
-        <v>713780.64000000013</v>
+        <v>-0.60000000987201929</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1075,8 +1075,8 @@
       <c r="D18">
         <v>2190783</v>
       </c>
-      <c r="E18" s="1">
-        <v>38960.17</v>
+      <c r="E18">
+        <v>37154.339999999997</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="L18" s="2">
         <f t="shared" si="0"/>
-        <v>1805.8199999999997</v>
+        <v>-1.0000000002037268E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1111,8 +1111,8 @@
       <c r="D19">
         <v>134954925</v>
       </c>
-      <c r="E19" s="1">
-        <v>2399995.4900000002</v>
+      <c r="E19">
+        <v>1990451.18</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" si="0"/>
-        <v>409544.25000000023</v>
+        <v>-6.0000000055879354E-2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1147,8 +1147,8 @@
       <c r="D20">
         <v>112132230</v>
       </c>
-      <c r="E20" s="1">
-        <v>1994123.55999999</v>
+      <c r="E20">
+        <v>1653838.87</v>
       </c>
       <c r="G20" t="s">
         <v>22</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="L20" s="2">
         <f t="shared" si="0"/>
-        <v>340284.64999999013</v>
+        <v>-3.9999999804422259E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1183,8 +1183,8 @@
       <c r="D21">
         <v>3005149</v>
       </c>
-      <c r="E21" s="1">
-        <v>53442.6</v>
+      <c r="E21">
+        <v>52164.49</v>
       </c>
       <c r="G21" t="s">
         <v>22</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="L21" s="2">
         <f t="shared" si="0"/>
-        <v>1278.0999999999985</v>
+        <v>-1.0000000002037268E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1219,8 +1219,8 @@
       <c r="D22">
         <v>84556353</v>
       </c>
-      <c r="E22" s="1">
-        <v>1503723.15</v>
+      <c r="E22">
+        <v>1247122.28999999</v>
       </c>
       <c r="G22" t="s">
         <v>22</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="L22" s="2">
         <f t="shared" si="0"/>
-        <v>256600.97000000998</v>
+        <v>0.11000000010244548</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1255,8 +1255,8 @@
       <c r="D23">
         <v>52786776</v>
       </c>
-      <c r="E23" s="1">
-        <v>938743.07</v>
+      <c r="E23">
+        <v>778552.48999999894</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="L23" s="2">
         <f t="shared" si="0"/>
-        <v>160190.58999999997</v>
+        <v>9.9999989615753293E-3</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1291,8 +1291,8 @@
       <c r="D24">
         <v>109586820</v>
       </c>
-      <c r="E24" s="1">
-        <v>1948856.97</v>
+      <c r="E24">
+        <v>1616296.68</v>
       </c>
       <c r="G24" t="s">
         <v>22</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="L24" s="2">
         <f t="shared" si="0"/>
-        <v>332560.07000000007</v>
+        <v>-0.21999999997206032</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1327,8 +1327,8 @@
       <c r="D25">
         <v>571557</v>
       </c>
-      <c r="E25" s="1">
-        <v>10164.379999999999</v>
+      <c r="E25">
+        <v>7309.22</v>
       </c>
       <c r="G25" t="s">
         <v>22</v>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="L25" s="2">
         <f t="shared" si="0"/>
-        <v>2855.1499999999996</v>
+        <v>-9.999999999308784E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1363,8 +1363,8 @@
       <c r="D26">
         <v>18382707</v>
       </c>
-      <c r="E26" s="1">
-        <v>326912.14999999898</v>
+      <c r="E26">
+        <v>328660.06</v>
       </c>
       <c r="G26" t="s">
         <v>22</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="L26" s="2">
         <f t="shared" si="0"/>
-        <v>-1747.9400000010501</v>
+        <v>-3.0000000027939677E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1399,8 +1399,8 @@
       <c r="D27">
         <v>295729</v>
       </c>
-      <c r="E27" s="1">
-        <v>5259.15</v>
+      <c r="E27">
+        <v>2225.2399999999998</v>
       </c>
       <c r="G27" t="s">
         <v>22</v>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="L27" s="2">
         <f t="shared" si="0"/>
-        <v>3033.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -1435,8 +1435,8 @@
       <c r="D28">
         <v>107959705</v>
       </c>
-      <c r="E28" s="1">
-        <v>1919920.57</v>
+      <c r="E28">
+        <v>1920842.78</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="L28" s="2">
         <f t="shared" si="0"/>
-        <v>-922.28999999002554</v>
+        <v>-7.9999990062788129E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -1471,8 +1471,8 @@
       <c r="D29">
         <v>20916476</v>
       </c>
-      <c r="E29" s="1">
-        <v>371971.93</v>
+      <c r="E29">
+        <v>373960.74</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="L29" s="2">
         <f t="shared" si="0"/>
-        <v>-1988.859999999986</v>
+        <v>-4.9999999988358468E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -1507,8 +1507,8 @@
       <c r="D30">
         <v>147756</v>
       </c>
-      <c r="E30" s="1">
-        <v>2627.65</v>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="G30" t="s">
         <v>22</v>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="L30" s="2">
         <f t="shared" si="0"/>
-        <v>2627.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -1543,8 +1543,8 @@
       <c r="D31">
         <v>19992462</v>
       </c>
-      <c r="E31" s="1">
-        <v>355539.51</v>
+      <c r="E31">
+        <v>357440.46</v>
       </c>
       <c r="G31" t="s">
         <v>22</v>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="L31" s="2">
         <f t="shared" si="0"/>
-        <v>-1901.0499999989988</v>
+        <v>-9.99999989871867E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1579,8 +1579,8 @@
       <c r="D32">
         <v>32709558</v>
       </c>
-      <c r="E32" s="1">
-        <v>581696.30999999901</v>
+      <c r="E32">
+        <v>584806.40000000002</v>
       </c>
       <c r="G32" t="s">
         <v>22</v>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="L32" s="2">
         <f t="shared" si="0"/>
-        <v>-3110.1400000009453</v>
+        <v>-4.9999999930150807E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -1615,8 +1615,8 @@
       <c r="D33">
         <v>1273965</v>
       </c>
-      <c r="E33" s="1">
-        <v>22655.79</v>
+      <c r="E33">
+        <v>20255.809999999899</v>
       </c>
       <c r="G33" t="s">
         <v>22</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="L33" s="2">
         <f t="shared" si="0"/>
-        <v>2399.9800000001014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -1651,7 +1651,7 @@
       <c r="D34">
         <v>11700000</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34">
         <v>250000</v>
       </c>
       <c r="G34" t="s">
@@ -1678,8 +1678,8 @@
       <c r="D35">
         <v>1170000</v>
       </c>
-      <c r="E35" s="1">
-        <v>1111500.01</v>
+      <c r="E35">
+        <v>1111500</v>
       </c>
       <c r="G35" t="s">
         <v>7</v>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="L35" s="2">
         <f t="shared" si="0"/>
-        <v>-4.0000000037252903E-2</v>
+        <v>-5.0000000046566129E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -1705,8 +1705,8 @@
       <c r="D36">
         <v>2780000</v>
       </c>
-      <c r="E36" s="1">
-        <v>2640999.88</v>
+      <c r="E36">
+        <v>2641000.2400000002</v>
       </c>
       <c r="G36" t="s">
         <v>7</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="L36" s="2">
         <f t="shared" si="0"/>
-        <v>-0.12000000011175871</v>
+        <v>0.24000000022351742</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -1732,8 +1732,8 @@
       <c r="D37">
         <v>1170000</v>
       </c>
-      <c r="E37" s="1">
-        <v>351000.01</v>
+      <c r="E37">
+        <v>350999.97</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="L37" s="2">
         <f t="shared" si="0"/>
-        <v>1.0000000009313226E-2</v>
+        <v>-3.0000000027939677E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -1759,8 +1759,8 @@
       <c r="D38">
         <v>2780000</v>
       </c>
-      <c r="E38" s="1">
-        <v>833999.97</v>
+      <c r="E38">
+        <v>834000.03</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="L38" s="2">
         <f t="shared" si="0"/>
-        <v>-3.0000000027939677E-2</v>
+        <v>3.0000000027939677E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -1786,7 +1786,7 @@
       <c r="D39">
         <v>1170000</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39">
         <v>1094999.93</v>
       </c>
       <c r="G39" t="s">
@@ -1813,7 +1813,7 @@
       <c r="D40">
         <v>1170000</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40">
         <v>1094999.93</v>
       </c>
       <c r="G40" t="s">
@@ -1840,8 +1840,8 @@
       <c r="D41">
         <v>1170000</v>
       </c>
-      <c r="E41" s="1">
-        <v>1119999.8500000001</v>
+      <c r="E41">
+        <v>1119999.92</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="L41" s="2">
         <f t="shared" si="0"/>
-        <v>-0.12999999988824129</v>
+        <v>-6.0000000055879354E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -1867,8 +1867,8 @@
       <c r="D42">
         <v>1170000</v>
       </c>
-      <c r="E42" s="1">
-        <v>1119999.8500000001</v>
+      <c r="E42">
+        <v>1119999.92</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="L42" s="2">
         <f t="shared" si="0"/>
-        <v>-0.12999999988824129</v>
+        <v>-6.0000000055879354E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
       <c r="D43">
         <v>1170000</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43">
         <v>740506.32</v>
       </c>
       <c r="G43" t="s">
@@ -1921,8 +1921,8 @@
       <c r="D44">
         <v>2780000</v>
       </c>
-      <c r="E44" s="1">
-        <v>1759493.68</v>
+      <c r="E44">
+        <v>1759493.92</v>
       </c>
       <c r="G44" t="s">
         <v>11</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="L44" s="2">
         <f t="shared" si="0"/>
-        <v>-0.22999999998137355</v>
+        <v>1.0000000009313226E-2</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -1948,7 +1948,7 @@
       <c r="D45">
         <v>2000000</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45">
         <v>216082.69</v>
       </c>
       <c r="G45" t="s">
@@ -1984,7 +1984,7 @@
       <c r="D46">
         <v>2000000</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46">
         <v>216082.69</v>
       </c>
       <c r="G46" t="s">
@@ -2020,8 +2020,8 @@
       <c r="D47">
         <v>2000000</v>
       </c>
-      <c r="E47" s="1">
-        <v>207352.09</v>
+      <c r="E47">
+        <v>207352.1</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="L47" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0000000009313226E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2056,8 +2056,8 @@
       <c r="D48">
         <v>4000000</v>
       </c>
-      <c r="E48" s="1">
-        <v>433256.73</v>
+      <c r="E48">
+        <v>433256.79</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="L48" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.9999999997671694E-2</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2092,8 +2092,8 @@
       <c r="D49">
         <v>4000000</v>
       </c>
-      <c r="E49" s="1">
-        <v>434348.08</v>
+      <c r="E49">
+        <v>434348.11</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="L49" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.9999999969732016E-2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2128,7 +2128,7 @@
       <c r="D50">
         <v>4000000</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50">
         <v>392877.66</v>
       </c>
       <c r="G50" t="s">
@@ -2164,7 +2164,7 @@
       <c r="D51">
         <v>1000000</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51">
         <v>21030.12</v>
       </c>
       <c r="G51" t="s">
@@ -2200,7 +2200,7 @@
       <c r="D52">
         <v>1000000</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52">
         <v>21030.12</v>
       </c>
       <c r="G52" t="s">
@@ -2236,7 +2236,7 @@
       <c r="D53">
         <v>1000000</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53">
         <v>20180.419999999998</v>
       </c>
       <c r="G53" t="s">
@@ -2272,8 +2272,8 @@
       <c r="D54">
         <v>2000000</v>
       </c>
-      <c r="E54" s="1">
-        <v>494190.88</v>
+      <c r="E54">
+        <v>494190.84</v>
       </c>
       <c r="G54" t="s">
         <v>14</v>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="L54" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3.9999999979045242E-2</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -2308,8 +2308,8 @@
       <c r="D55">
         <v>2000000</v>
       </c>
-      <c r="E55" s="1">
-        <v>495435.69</v>
+      <c r="E55">
+        <v>495435.66</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="L55" s="2">
         <f t="shared" si="0"/>
-        <v>-5.9999999997671694E-2</v>
+        <v>-9.0000000025611371E-2</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -2344,8 +2344,8 @@
       <c r="D56">
         <v>2000000</v>
       </c>
-      <c r="E56" s="1">
-        <v>448132.81</v>
+      <c r="E56">
+        <v>448132.75</v>
       </c>
       <c r="G56" t="s">
         <v>14</v>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="L56" s="2">
         <f t="shared" si="0"/>
-        <v>5.9999999997671694E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -2380,7 +2380,7 @@
       <c r="D57">
         <v>2000000</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57">
         <v>278841.65999999997</v>
       </c>
       <c r="G57" t="s">
@@ -2404,7 +2404,7 @@
       <c r="D58">
         <v>2000000</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58">
         <v>278841.65999999997</v>
       </c>
       <c r="G58" t="s">
@@ -2428,15 +2428,15 @@
       <c r="D59">
         <v>1000000</v>
       </c>
-      <c r="E59" s="1">
-        <v>133115.34</v>
+      <c r="E59">
+        <v>133115.35999999999</v>
       </c>
       <c r="G59" t="s">
         <v>15</v>
       </c>
       <c r="L59" s="2">
         <f t="shared" si="0"/>
-        <v>133115.34</v>
+        <v>133115.35999999999</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -2452,15 +2452,15 @@
       <c r="D60">
         <v>2000000</v>
       </c>
-      <c r="E60" s="1">
-        <v>278141.06</v>
+      <c r="E60">
+        <v>278141.03000000003</v>
       </c>
       <c r="G60" t="s">
         <v>15</v>
       </c>
       <c r="L60" s="2">
         <f t="shared" si="0"/>
-        <v>278141.06</v>
+        <v>278141.03000000003</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -2476,7 +2476,7 @@
       <c r="D61">
         <v>2000000</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61">
         <v>278841.65999999997</v>
       </c>
       <c r="G61" t="s">
@@ -2500,7 +2500,7 @@
       <c r="D62">
         <v>2000000</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62">
         <v>252218.58</v>
       </c>
       <c r="G62" t="s">
@@ -2520,8 +2520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1338CA6-ED9C-4D9D-B615-56E3E13B7CFC}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:L16"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2550,6 +2550,9 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
@@ -2585,6 +2588,9 @@
       <c r="E3">
         <v>1053000</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
@@ -2621,6 +2627,9 @@
       <c r="E4">
         <v>1017999.97</v>
       </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
@@ -2657,6 +2666,9 @@
       <c r="E5">
         <v>1000000.03</v>
       </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
       <c r="G5" t="s">
         <v>24</v>
       </c>
@@ -2693,6 +2705,9 @@
       <c r="E6">
         <v>740506.32</v>
       </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
       <c r="G6" t="s">
         <v>25</v>
       </c>
@@ -2729,6 +2744,9 @@
       <c r="E7">
         <v>1759493.67</v>
       </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
       <c r="G7" t="s">
         <v>25</v>
       </c>
@@ -2765,6 +2783,9 @@
       <c r="E8">
         <v>735294.1</v>
       </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
       <c r="G8" t="s">
         <v>26</v>
       </c>
@@ -2801,6 +2822,9 @@
       <c r="E9">
         <v>1764705.83</v>
       </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
       <c r="G9" t="s">
         <v>26</v>
       </c>
@@ -2837,6 +2861,9 @@
       <c r="E10">
         <v>48717.95</v>
       </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -2873,6 +2900,9 @@
       <c r="E11">
         <v>51282.05</v>
       </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
@@ -2909,6 +2939,9 @@
       <c r="E12">
         <v>48717.95</v>
       </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
       <c r="G12" t="s">
         <v>17</v>
       </c>
@@ -2945,6 +2978,9 @@
       <c r="E13">
         <v>51282.05</v>
       </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
@@ -2981,6 +3017,9 @@
       <c r="E14">
         <v>351000</v>
       </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
       <c r="G14" t="s">
         <v>5</v>
       </c>
@@ -3008,6 +3047,9 @@
       <c r="E15">
         <v>834000.03</v>
       </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
       <c r="G15" t="s">
         <v>5</v>
       </c>
@@ -3033,7 +3075,10 @@
         <v>149388939</v>
       </c>
       <c r="E16">
-        <v>2656684.9500000002</v>
+        <v>2203338.44</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
@@ -3052,7 +3097,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>453346.52000001026</v>
+        <v>1.0000010021030903E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -3069,7 +3114,10 @@
         <v>235208561</v>
       </c>
       <c r="E17">
-        <v>4182873.46999999</v>
+        <v>3469092.57</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
@@ -3088,7 +3136,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>713780.48999998998</v>
+        <v>-0.41000000014901161</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -3105,7 +3153,10 @@
         <v>2190783</v>
       </c>
       <c r="E18">
-        <v>38960.17</v>
+        <v>37154.339999999997</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -3124,7 +3175,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>1805.8199999999997</v>
+        <v>-1.0000000002037268E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -3141,7 +3192,10 @@
         <v>134954925</v>
       </c>
       <c r="E19">
-        <v>2399994.98</v>
+        <v>1990450.98999999</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
       </c>
       <c r="G19" t="s">
         <v>22</v>
@@ -3160,7 +3214,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>409543.74</v>
+        <v>-0.25000001001171768</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -3177,7 +3231,10 @@
         <v>112132230</v>
       </c>
       <c r="E20">
-        <v>1994123.51999999</v>
+        <v>1653838.96</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
       </c>
       <c r="G20" t="s">
         <v>22</v>
@@ -3196,7 +3253,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>340284.60999999009</v>
+        <v>5.0000000046566129E-2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -3213,7 +3270,10 @@
         <v>3005149</v>
       </c>
       <c r="E21">
-        <v>53442.6</v>
+        <v>52164.49</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
       </c>
       <c r="G21" t="s">
         <v>22</v>
@@ -3232,7 +3292,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>1278.0999999999985</v>
+        <v>-1.0000000002037268E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -3249,7 +3309,10 @@
         <v>84556353</v>
       </c>
       <c r="E22">
-        <v>1503723.05</v>
+        <v>1247122.17</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
       </c>
       <c r="G22" t="s">
         <v>22</v>
@@ -3268,7 +3331,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="0"/>
-        <v>256600.87000001012</v>
+        <v>-9.9999899975955486E-3</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3285,7 +3348,10 @@
         <v>52786776</v>
       </c>
       <c r="E23">
-        <v>938743.06</v>
+        <v>778552.49</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
       </c>
       <c r="G23" t="s">
         <v>22</v>
@@ -3304,7 +3370,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>160190.58000000007</v>
+        <v>1.0000000009313226E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -3321,7 +3387,10 @@
         <v>109586820</v>
       </c>
       <c r="E24">
-        <v>1948856.84</v>
+        <v>1616296.72999999</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
       </c>
       <c r="G24" t="s">
         <v>22</v>
@@ -3340,7 +3409,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>332559.94000000018</v>
+        <v>-0.17000000993721187</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -3357,7 +3426,10 @@
         <v>571557</v>
       </c>
       <c r="E25">
-        <v>10164.379999999999</v>
+        <v>7309.22</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
       </c>
       <c r="G25" t="s">
         <v>22</v>
@@ -3376,7 +3448,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>2855.1499999999996</v>
+        <v>-9.999999999308784E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3393,7 +3465,10 @@
         <v>18382707</v>
       </c>
       <c r="E26">
-        <v>326912.14999999898</v>
+        <v>328660.07</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
       </c>
       <c r="G26" t="s">
         <v>22</v>
@@ -3412,7 +3487,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>-1747.9400000010501</v>
+        <v>-2.0000000018626451E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3429,7 +3504,10 @@
         <v>295729</v>
       </c>
       <c r="E27">
-        <v>5259.15</v>
+        <v>2225.2399999999998</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
       </c>
       <c r="G27" t="s">
         <v>22</v>
@@ -3448,7 +3526,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
-        <v>3033.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -3465,7 +3543,10 @@
         <v>107959705</v>
       </c>
       <c r="E28">
-        <v>1919920.67</v>
+        <v>1920842.97</v>
+      </c>
+      <c r="F28">
+        <v>26</v>
       </c>
       <c r="G28" t="s">
         <v>22</v>
@@ -3484,7 +3565,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
-        <v>-922.18999999016523</v>
+        <v>0.11000000988133252</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -3501,7 +3582,10 @@
         <v>20916476</v>
       </c>
       <c r="E29">
-        <v>371971.89999999898</v>
+        <v>373960.72</v>
+      </c>
+      <c r="F29">
+        <v>27</v>
       </c>
       <c r="G29" t="s">
         <v>22</v>
@@ -3520,7 +3604,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>-1988.8900000010035</v>
+        <v>-7.0000000006984919E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -3537,7 +3621,10 @@
         <v>147756</v>
       </c>
       <c r="E30">
-        <v>2627.65</v>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>28</v>
       </c>
       <c r="G30" t="s">
         <v>22</v>
@@ -3556,7 +3643,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>2627.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -3573,7 +3660,10 @@
         <v>19992462</v>
       </c>
       <c r="E31">
-        <v>355539.51</v>
+        <v>357440.48</v>
+      </c>
+      <c r="F31">
+        <v>29</v>
       </c>
       <c r="G31" t="s">
         <v>22</v>
@@ -3592,7 +3682,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>-1901.0499999989988</v>
+        <v>-7.999999902676791E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -3609,7 +3699,10 @@
         <v>32709558</v>
       </c>
       <c r="E32">
-        <v>581696.25</v>
+        <v>584806.42000000004</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>22</v>
@@ -3628,7 +3721,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>-3110.1999999999534</v>
+        <v>-2.9999999911524355E-2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3645,7 +3738,10 @@
         <v>1273965</v>
       </c>
       <c r="E33">
-        <v>22655.79</v>
+        <v>20255.809999999899</v>
+      </c>
+      <c r="F33">
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>22</v>
@@ -3664,7 +3760,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>2399.9800000001014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3683,6 +3779,9 @@
       <c r="E34">
         <v>250000</v>
       </c>
+      <c r="F34">
+        <v>32</v>
+      </c>
       <c r="G34" t="s">
         <v>6</v>
       </c>
@@ -3710,6 +3809,9 @@
       <c r="E35">
         <v>1111500</v>
       </c>
+      <c r="F35">
+        <v>33</v>
+      </c>
       <c r="G35" t="s">
         <v>7</v>
       </c>
@@ -3737,6 +3839,9 @@
       <c r="E36">
         <v>2641000</v>
       </c>
+      <c r="F36">
+        <v>34</v>
+      </c>
       <c r="G36" t="s">
         <v>7</v>
       </c>
@@ -3764,6 +3869,9 @@
       <c r="E37">
         <v>351000</v>
       </c>
+      <c r="F37">
+        <v>35</v>
+      </c>
       <c r="G37" t="s">
         <v>8</v>
       </c>
@@ -3791,6 +3899,9 @@
       <c r="E38">
         <v>834000.03</v>
       </c>
+      <c r="F38">
+        <v>36</v>
+      </c>
       <c r="G38" t="s">
         <v>8</v>
       </c>
@@ -3818,6 +3929,9 @@
       <c r="E39">
         <v>1095000</v>
       </c>
+      <c r="F39">
+        <v>37</v>
+      </c>
       <c r="G39" t="s">
         <v>9</v>
       </c>
@@ -3845,6 +3959,9 @@
       <c r="E40">
         <v>1095000</v>
       </c>
+      <c r="F40">
+        <v>38</v>
+      </c>
       <c r="G40" t="s">
         <v>9</v>
       </c>
@@ -3872,6 +3989,9 @@
       <c r="E41">
         <v>1120000.05</v>
       </c>
+      <c r="F41">
+        <v>39</v>
+      </c>
       <c r="G41" t="s">
         <v>10</v>
       </c>
@@ -3899,6 +4019,9 @@
       <c r="E42">
         <v>1120000.05</v>
       </c>
+      <c r="F42">
+        <v>40</v>
+      </c>
       <c r="G42" t="s">
         <v>10</v>
       </c>
@@ -3926,6 +4049,9 @@
       <c r="E43">
         <v>740506.32</v>
       </c>
+      <c r="F43">
+        <v>41</v>
+      </c>
       <c r="G43" t="s">
         <v>11</v>
       </c>
@@ -3953,6 +4079,9 @@
       <c r="E44">
         <v>1759493.67</v>
       </c>
+      <c r="F44">
+        <v>42</v>
+      </c>
       <c r="G44" t="s">
         <v>11</v>
       </c>
@@ -3980,6 +4109,9 @@
       <c r="E45">
         <v>216082.71</v>
       </c>
+      <c r="F45">
+        <v>43</v>
+      </c>
       <c r="G45" t="s">
         <v>13</v>
       </c>
@@ -4016,6 +4148,9 @@
       <c r="E46">
         <v>216082.71</v>
       </c>
+      <c r="F46">
+        <v>44</v>
+      </c>
       <c r="G46" t="s">
         <v>13</v>
       </c>
@@ -4052,6 +4187,9 @@
       <c r="E47">
         <v>207352.1</v>
       </c>
+      <c r="F47">
+        <v>45</v>
+      </c>
       <c r="G47" t="s">
         <v>13</v>
       </c>
@@ -4088,6 +4226,9 @@
       <c r="E48">
         <v>433256.76</v>
       </c>
+      <c r="F48">
+        <v>46</v>
+      </c>
       <c r="G48" t="s">
         <v>13</v>
       </c>
@@ -4124,6 +4265,9 @@
       <c r="E49">
         <v>434348.08</v>
       </c>
+      <c r="F49">
+        <v>47</v>
+      </c>
       <c r="G49" t="s">
         <v>13</v>
       </c>
@@ -4160,6 +4304,9 @@
       <c r="E50">
         <v>392877.66</v>
       </c>
+      <c r="F50">
+        <v>48</v>
+      </c>
       <c r="G50" t="s">
         <v>13</v>
       </c>
@@ -4196,6 +4343,9 @@
       <c r="E51">
         <v>21030.12</v>
       </c>
+      <c r="F51">
+        <v>49</v>
+      </c>
       <c r="G51" t="s">
         <v>14</v>
       </c>
@@ -4232,6 +4382,9 @@
       <c r="E52">
         <v>21030.12</v>
       </c>
+      <c r="F52">
+        <v>50</v>
+      </c>
       <c r="G52" t="s">
         <v>14</v>
       </c>
@@ -4268,6 +4421,9 @@
       <c r="E53">
         <v>20180.419999999998</v>
       </c>
+      <c r="F53">
+        <v>51</v>
+      </c>
       <c r="G53" t="s">
         <v>14</v>
       </c>
@@ -4304,6 +4460,9 @@
       <c r="E54">
         <v>494190.88</v>
       </c>
+      <c r="F54">
+        <v>52</v>
+      </c>
       <c r="G54" t="s">
         <v>14</v>
       </c>
@@ -4340,6 +4499,9 @@
       <c r="E55">
         <v>495435.69</v>
       </c>
+      <c r="F55">
+        <v>53</v>
+      </c>
       <c r="G55" t="s">
         <v>14</v>
       </c>
@@ -4376,6 +4538,9 @@
       <c r="E56">
         <v>448132.78</v>
       </c>
+      <c r="F56">
+        <v>54</v>
+      </c>
       <c r="G56" t="s">
         <v>14</v>
       </c>
@@ -4412,6 +4577,9 @@
       <c r="E57">
         <v>278841.68</v>
       </c>
+      <c r="F57">
+        <v>55</v>
+      </c>
       <c r="G57" t="s">
         <v>15</v>
       </c>
@@ -4436,6 +4604,9 @@
       <c r="E58">
         <v>278841.68</v>
       </c>
+      <c r="F58">
+        <v>56</v>
+      </c>
       <c r="G58" t="s">
         <v>15</v>
       </c>
@@ -4460,6 +4631,9 @@
       <c r="E59">
         <v>133115.38</v>
       </c>
+      <c r="F59">
+        <v>57</v>
+      </c>
       <c r="G59" t="s">
         <v>15</v>
       </c>
@@ -4484,6 +4658,9 @@
       <c r="E60">
         <v>278141.06</v>
       </c>
+      <c r="F60">
+        <v>58</v>
+      </c>
       <c r="G60" t="s">
         <v>15</v>
       </c>
@@ -4508,6 +4685,9 @@
       <c r="E61">
         <v>278841.69</v>
       </c>
+      <c r="F61">
+        <v>59</v>
+      </c>
       <c r="G61" t="s">
         <v>15</v>
       </c>
@@ -4531,6 +4711,9 @@
       </c>
       <c r="E62">
         <v>252218.59</v>
+      </c>
+      <c r="F62">
+        <v>60</v>
       </c>
       <c r="G62" t="s">
         <v>15</v>

--- a/validation/insurance_fm/comparison.xlsx
+++ b/validation/insurance_fm/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\joh\dev\OasisLMF_branch\validation\insurance_fm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A95CA0-E09E-43C0-A106-FC4E49870DB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F49FA9-9754-4C6E-AF85-4EF3F394536A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1B1F7516-8689-4AE8-9E91-B1C5033EAC94}"/>
   </bookViews>
@@ -129,7 +129,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,16 +165,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -958,7 +971,7 @@
         <v>7309.23</v>
       </c>
       <c r="L14" s="2">
-        <f>E14-K14</f>
+        <f t="shared" ref="L14:L33" si="1">E14-K14</f>
         <v>-9.999999999308784E-3</v>
       </c>
       <c r="Y14" s="1"/>
@@ -995,7 +1008,7 @@
         <v>328660.09000000003</v>
       </c>
       <c r="L15" s="2">
-        <f>E15-K15</f>
+        <f t="shared" si="1"/>
         <v>-7.0000001054722816E-2</v>
       </c>
       <c r="Y15" s="1"/>
@@ -1032,7 +1045,7 @@
         <v>2225.2399999999998</v>
       </c>
       <c r="L16" s="2">
-        <f>E16-K16</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y16" s="1"/>
@@ -1069,7 +1082,7 @@
         <v>1920842.8599999901</v>
       </c>
       <c r="L17" s="2">
-        <f>E17-K17</f>
+        <f t="shared" si="1"/>
         <v>0.12000000989064574</v>
       </c>
       <c r="Y17" s="1"/>
@@ -1106,7 +1119,7 @@
         <v>373960.79</v>
       </c>
       <c r="L18" s="2">
-        <f>E18-K18</f>
+        <f t="shared" si="1"/>
         <v>-7.9999999958090484E-2</v>
       </c>
       <c r="Y18" s="1"/>
@@ -1143,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <f>E19-K19</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y19" s="1"/>
@@ -1180,7 +1193,7 @@
         <v>357440.55999999901</v>
       </c>
       <c r="L20" s="2">
-        <f>E20-K20</f>
+        <f t="shared" si="1"/>
         <v>-6.9999999017454684E-2</v>
       </c>
       <c r="Y20" s="1"/>
@@ -1217,7 +1230,7 @@
         <v>584806.44999999995</v>
       </c>
       <c r="L21" s="2">
-        <f>E21-K21</f>
+        <f t="shared" si="1"/>
         <v>-0.13000000000465661</v>
       </c>
       <c r="Y21" s="1"/>
@@ -1254,7 +1267,7 @@
         <v>20255.809999999899</v>
       </c>
       <c r="L22" s="2">
-        <f>E22-K22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y22" s="1"/>
@@ -1282,7 +1295,7 @@
         <v>250000</v>
       </c>
       <c r="L23" s="2">
-        <f>E23-K23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y23" s="1"/>
@@ -1310,7 +1323,7 @@
         <v>1111500.05</v>
       </c>
       <c r="L24" s="2">
-        <f>E24-K24</f>
+        <f t="shared" si="1"/>
         <v>-0.19999999995343387</v>
       </c>
       <c r="Y24" s="1"/>
@@ -1338,7 +1351,7 @@
         <v>2641000</v>
       </c>
       <c r="L25" s="2">
-        <f>E25-K25</f>
+        <f t="shared" si="1"/>
         <v>-0.50999999977648258</v>
       </c>
       <c r="Y25" s="1"/>
@@ -1366,7 +1379,7 @@
         <v>351000</v>
       </c>
       <c r="L26" s="2">
-        <f>E26-K26</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Y26" s="1"/>
@@ -1394,7 +1407,7 @@
         <v>834000</v>
       </c>
       <c r="L27" s="2">
-        <f>E27-K27</f>
+        <f t="shared" si="1"/>
         <v>-3.0000000027939677E-2</v>
       </c>
       <c r="Y27" s="1"/>
@@ -1422,7 +1435,7 @@
         <v>1095000.0799999901</v>
       </c>
       <c r="L28" s="2">
-        <f>E28-K28</f>
+        <f t="shared" si="1"/>
         <v>-0.14999999012798071</v>
       </c>
       <c r="Y28" s="1"/>
@@ -1450,7 +1463,7 @@
         <v>1095000.0799999901</v>
       </c>
       <c r="L29" s="2">
-        <f>E29-K29</f>
+        <f t="shared" si="1"/>
         <v>-0.14999999012798071</v>
       </c>
       <c r="Y29" s="1"/>
@@ -1478,7 +1491,7 @@
         <v>1119999.98</v>
       </c>
       <c r="L30" s="2">
-        <f>E30-K30</f>
+        <f t="shared" si="1"/>
         <v>0.14000000013038516</v>
       </c>
       <c r="Y30" s="1"/>
@@ -1506,7 +1519,7 @@
         <v>1119999.98</v>
       </c>
       <c r="L31" s="2">
-        <f>E31-K31</f>
+        <f t="shared" si="1"/>
         <v>0.14000000013038516</v>
       </c>
       <c r="Y31" s="1"/>
@@ -1534,7 +1547,7 @@
         <v>740506.44</v>
       </c>
       <c r="L32" s="2">
-        <f>E32-K32</f>
+        <f t="shared" si="1"/>
         <v>-0.11999999999534339</v>
       </c>
       <c r="Y32" s="1"/>
@@ -1562,7 +1575,7 @@
         <v>1759493.91</v>
       </c>
       <c r="L33" s="2">
-        <f>E33-K33</f>
+        <f t="shared" si="1"/>
         <v>-0.36999999987892807</v>
       </c>
       <c r="Y33" s="1"/>
@@ -2424,15 +2437,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1338CA6-ED9C-4D9D-B615-56E3E13B7CFC}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2440,7 +2453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2475,7 +2488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2501,8 +2514,12 @@
         <f>E3-K3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="3">
+        <f>L3/K3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2525,11 +2542,15 @@
         <v>833999.97</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L62" si="0">E4-K4</f>
+        <f t="shared" ref="L4:L56" si="0">E4-K4</f>
         <v>6.0000000055879354E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M56" si="1">L4/K4</f>
+        <v>7.1942448698024956E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -2564,8 +2585,12 @@
         <f t="shared" si="0"/>
         <v>1.0000010021030903E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="3">
+        <f t="shared" si="1"/>
+        <v>4.5385719619254986E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2600,8 +2625,12 @@
         <f t="shared" si="0"/>
         <v>-0.41000000014901161</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.1818651229953819E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2636,8 +2665,12 @@
         <f t="shared" si="0"/>
         <v>-1.0000000002037268E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.6914748884147534E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2672,8 +2705,12 @@
         <f t="shared" si="0"/>
         <v>-0.25000001001171768</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.255996655370054E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2708,8 +2745,12 @@
         <f t="shared" si="0"/>
         <v>5.0000000046566129E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3">
+        <f t="shared" si="1"/>
+        <v>3.023269058687592E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2744,8 +2785,12 @@
         <f t="shared" si="0"/>
         <v>-1.0000000002037268E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.9170125280674151E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2780,8 +2825,12 @@
         <f t="shared" si="0"/>
         <v>-9.9999899975955486E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3">
+        <f t="shared" si="1"/>
+        <v>-8.0184525285210069E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -2816,8 +2865,12 @@
         <f t="shared" si="0"/>
         <v>1.0000000009313226E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2844349310033957E-8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2852,8 +2905,12 @@
         <f t="shared" si="0"/>
         <v>-0.17000000993721187</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.0517870196819154E-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2888,8 +2945,12 @@
         <f t="shared" si="0"/>
         <v>-9.999999999308784E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.3681331685155323E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2924,8 +2985,12 @@
         <f t="shared" si="0"/>
         <v>-2.0000000018626451E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.085314471442654E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2960,8 +3025,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2996,8 +3065,12 @@
         <f t="shared" si="0"/>
         <v>0.11000000988133252</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3">
+        <f t="shared" si="1"/>
+        <v>5.7266532401996221E-8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3032,8 +3105,12 @@
         <f t="shared" si="0"/>
         <v>-7.0000000006984919E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.8718539985698747E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3068,8 +3145,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -3104,8 +3185,12 @@
         <f t="shared" si="0"/>
         <v>-7.999999902676791E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.2381343355876607E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -3140,8 +3225,12 @@
         <f t="shared" si="0"/>
         <v>-2.9999999911524355E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.129902365393603E-8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3176,8 +3265,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -3203,8 +3296,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -3230,8 +3327,12 @@
         <f t="shared" si="0"/>
         <v>-5.0000000046566129E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.4984253528882997E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3257,8 +3358,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -3284,8 +3389,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -3311,8 +3420,12 @@
         <f t="shared" si="0"/>
         <v>3.0000000027939677E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5971223055083545E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3338,8 +3451,12 @@
         <f t="shared" si="0"/>
         <v>-7.9999990062788129E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <f t="shared" si="1"/>
+        <v>-7.3059346317845795E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3365,8 +3482,12 @@
         <f t="shared" si="0"/>
         <v>-7.9999990062788129E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <f t="shared" si="1"/>
+        <v>-7.3059346317845795E-8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3392,8 +3513,12 @@
         <f t="shared" si="0"/>
         <v>7.000000006519258E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2500001174279108E-8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -3419,8 +3544,12 @@
         <f t="shared" si="0"/>
         <v>7.000000006519258E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2500001174279108E-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -3446,8 +3575,12 @@
         <f t="shared" si="0"/>
         <v>-0.11999999999534339</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.6205125777885659E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -3473,8 +3606,12 @@
         <f t="shared" si="0"/>
         <v>-0.23999999999068677</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.3640285915549817E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -3509,8 +3646,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -3545,8 +3686,12 @@
         <f t="shared" si="0"/>
         <v>-6.0000000055879354E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="3">
+        <f t="shared" si="1"/>
+        <v>-5.8939094585173393E-8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -3581,8 +3726,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -3617,8 +3766,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3653,8 +3806,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3689,8 +3846,12 @@
         <f t="shared" si="0"/>
         <v>3.0000000027939677E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3">
+        <f t="shared" si="1"/>
+        <v>6.924300986147331E-8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -3725,8 +3886,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -3761,8 +3926,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -3797,8 +3966,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -3833,8 +4006,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -3869,8 +4046,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -3905,8 +4086,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -3941,8 +4126,12 @@
         <f t="shared" si="0"/>
         <v>-5.9999999997671694E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.2110551165851817E-7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -3977,8 +4166,12 @@
         <f t="shared" si="0"/>
         <v>3.0000000027939677E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6944449000747382E-8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -4013,8 +4206,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -4049,8 +4246,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -4085,8 +4286,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -4121,8 +4326,12 @@
         <f t="shared" si="0"/>
         <v>1.0000000009313226E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3600000524026008E-8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -4157,8 +4366,12 @@
         <f t="shared" si="0"/>
         <v>-5.9999999823048711E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3">
+        <f t="shared" si="1"/>
+        <v>-3.399999975239427E-8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -4193,8 +4406,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -4229,8 +4446,12 @@
         <f t="shared" si="0"/>
         <v>-9.9999999947613105E-3</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.9499996674785121E-7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -4265,8 +4486,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -4300,6 +4525,10 @@
       <c r="L56">
         <f t="shared" si="0"/>
         <v>-9.9999999947613105E-3</v>
+      </c>
+      <c r="M56" s="3">
+        <f t="shared" si="1"/>
+        <v>-1.9499996674785121E-7</v>
       </c>
     </row>
   </sheetData>
